--- a/attendance-files/HRM/HRM (H) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1236,8 +1236,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
+      <pane xSplit="3.0" ySplit="3.0" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1" pane="topRight"/>
+      <selection activeCell="A4" sqref="A4" pane="bottomLeft"/>
+      <selection activeCell="D4" sqref="D4" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -1777,7 +1779,7 @@
       </c>
       <c r="E10" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="36">
         <f t="shared" si="1"/>
@@ -1788,7 +1790,9 @@
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
+      <c r="L10" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
       <c r="O10" s="38"/>
@@ -1821,7 +1825,7 @@
       </c>
       <c r="E11" s="35">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="36">
         <f t="shared" si="1"/>
@@ -1835,7 +1839,9 @@
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="K11" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
@@ -1961,7 +1967,7 @@
       </c>
       <c r="E14" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="36">
         <f t="shared" si="1"/>
@@ -1973,7 +1979,9 @@
         <v>20</v>
       </c>
       <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="K14" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
@@ -2007,7 +2015,7 @@
       </c>
       <c r="E15" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="36">
         <f t="shared" si="1"/>
@@ -2019,7 +2027,9 @@
       <c r="J15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
@@ -2097,7 +2107,7 @@
       </c>
       <c r="E17" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="36">
         <f t="shared" si="1"/>
@@ -2109,7 +2119,9 @@
         <v>20</v>
       </c>
       <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="K17" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -2187,7 +2199,7 @@
       </c>
       <c r="E19" s="35">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="1"/>
@@ -2203,8 +2215,12 @@
       <c r="J19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="K19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
       <c r="O19" s="38"/>
@@ -2252,7 +2268,7 @@
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
+      <c r="L20" s="39"/>
       <c r="M20" s="38"/>
       <c r="N20" s="38"/>
       <c r="O20" s="38"/>
@@ -2463,7 +2479,7 @@
       </c>
       <c r="E25" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="36">
         <f t="shared" si="1"/>
@@ -2473,7 +2489,9 @@
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+      <c r="K25" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
@@ -2507,7 +2525,7 @@
       </c>
       <c r="E26" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="1"/>
@@ -2517,7 +2535,9 @@
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="K26" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -2551,7 +2571,7 @@
       </c>
       <c r="E27" s="35">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" si="1"/>
@@ -2569,8 +2589,12 @@
       <c r="J27" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
+      <c r="K27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
       <c r="O27" s="38"/>
@@ -2603,7 +2627,7 @@
       </c>
       <c r="E28" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" si="1"/>
@@ -2615,7 +2639,9 @@
         <v>20</v>
       </c>
       <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="K28" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
@@ -2649,7 +2675,7 @@
       </c>
       <c r="E29" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="1"/>
@@ -2661,7 +2687,9 @@
         <v>20</v>
       </c>
       <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
+      <c r="K29" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
@@ -2831,7 +2859,7 @@
       </c>
       <c r="E33" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="1"/>
@@ -2842,7 +2870,9 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
+      <c r="L33" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="M33" s="38"/>
       <c r="N33" s="38"/>
       <c r="O33" s="38"/>
@@ -2875,7 +2905,7 @@
       </c>
       <c r="E34" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="36">
         <f t="shared" si="1"/>
@@ -2886,7 +2916,9 @@
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
+      <c r="L34" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
       <c r="O34" s="38"/>
@@ -3239,7 +3271,7 @@
       </c>
       <c r="E42" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="36">
         <f t="shared" si="1"/>
@@ -3252,7 +3284,9 @@
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
       <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
+      <c r="L42" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
       <c r="O42" s="38"/>
@@ -3423,7 +3457,7 @@
       </c>
       <c r="E46" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="36">
         <f t="shared" si="1"/>
@@ -3435,7 +3469,9 @@
       <c r="J46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="38"/>
+      <c r="K46" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
       <c r="N46" s="38"/>
@@ -3749,7 +3785,7 @@
       </c>
       <c r="E53" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="36">
         <f t="shared" si="1"/>
@@ -3761,7 +3797,9 @@
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
+      <c r="K53" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L53" s="38"/>
       <c r="M53" s="38"/>
       <c r="N53" s="38"/>
@@ -3795,7 +3833,7 @@
       </c>
       <c r="E54" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="1"/>
@@ -3805,7 +3843,9 @@
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
+      <c r="K54" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L54" s="38"/>
       <c r="M54" s="38"/>
       <c r="N54" s="38"/>
@@ -3933,7 +3973,7 @@
       </c>
       <c r="E57" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="36">
         <f t="shared" si="1"/>
@@ -3943,7 +3983,9 @@
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
       <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
+      <c r="K57" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
       <c r="N57" s="38"/>
@@ -4619,7 +4661,7 @@
       </c>
       <c r="E72" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="36">
         <f t="shared" si="1"/>
@@ -4632,7 +4674,9 @@
         <v>20</v>
       </c>
       <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
+      <c r="L72" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="M72" s="38"/>
       <c r="N72" s="38"/>
       <c r="O72" s="38"/>
@@ -4801,7 +4845,7 @@
       </c>
       <c r="E76" s="35">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="36">
         <f t="shared" si="1"/>
@@ -4816,7 +4860,9 @@
       </c>
       <c r="J76" s="38"/>
       <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
+      <c r="L76" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="M76" s="38"/>
       <c r="N76" s="38"/>
       <c r="O76" s="38"/>
@@ -5116,7 +5162,7 @@
       </c>
       <c r="E83" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="36">
         <f t="shared" si="1"/>
@@ -5125,8 +5171,10 @@
       <c r="G83" s="37"/>
       <c r="H83" s="38"/>
       <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="L83" s="38"/>
       <c r="M83" s="38"/>
       <c r="N83" s="38"/>

--- a/attendance-files/HRM/HRM (H) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (H) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1655,8 +1655,10 @@
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="M7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="30"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
@@ -1687,7 +1689,7 @@
       </c>
       <c r="E8" s="35">
         <f t="shared" ref="E8:E95" si="3">IF(D8&gt;0,COUNTIF(G8:Z8,"A"),"")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="1"/>
@@ -1702,9 +1704,15 @@
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
+      <c r="N8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
@@ -1733,7 +1741,7 @@
       </c>
       <c r="E9" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="36">
         <f t="shared" si="1"/>
@@ -1748,7 +1756,9 @@
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="N9" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
@@ -1779,7 +1789,7 @@
       </c>
       <c r="E10" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="36">
         <f t="shared" si="1"/>
@@ -1796,7 +1806,9 @@
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
       <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
+      <c r="P10" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
@@ -1919,7 +1931,7 @@
       </c>
       <c r="E13" s="35">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="36">
         <f t="shared" si="1"/>
@@ -1936,7 +1948,9 @@
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
+      <c r="N13" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
@@ -2015,7 +2029,7 @@
       </c>
       <c r="E15" s="35">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="36">
         <f t="shared" si="1"/>
@@ -2032,7 +2046,9 @@
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
+      <c r="N15" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
@@ -2063,7 +2079,7 @@
       </c>
       <c r="E16" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="36">
         <f t="shared" si="1"/>
@@ -2075,8 +2091,12 @@
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+      <c r="M16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
@@ -2155,7 +2175,7 @@
       </c>
       <c r="E18" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="36">
         <f t="shared" si="1"/>
@@ -2167,10 +2187,14 @@
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
+      <c r="M18" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N18" s="38"/>
       <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
+      <c r="P18" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
@@ -2301,7 +2325,7 @@
       </c>
       <c r="E21" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="36">
         <f t="shared" si="1"/>
@@ -2316,7 +2340,9 @@
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
+      <c r="P21" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
@@ -2345,7 +2371,7 @@
       </c>
       <c r="E22" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="36">
         <f t="shared" si="1"/>
@@ -2357,10 +2383,14 @@
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+      <c r="M22" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
+      <c r="P22" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
       <c r="S22" s="38"/>
@@ -2389,7 +2419,7 @@
       </c>
       <c r="E23" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="36">
         <f t="shared" si="1"/>
@@ -2406,7 +2436,9 @@
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
       <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
+      <c r="P23" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
@@ -2435,7 +2467,7 @@
       </c>
       <c r="E24" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="36">
         <f t="shared" si="1"/>
@@ -2450,7 +2482,9 @@
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
       <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
+      <c r="P24" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
       <c r="S24" s="38"/>
@@ -2525,7 +2559,7 @@
       </c>
       <c r="E26" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="1"/>
@@ -2539,7 +2573,9 @@
         <v>20</v>
       </c>
       <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
+      <c r="M26" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N26" s="38"/>
       <c r="O26" s="38"/>
       <c r="P26" s="38"/>
@@ -2571,7 +2607,7 @@
       </c>
       <c r="E27" s="35">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" si="1"/>
@@ -2595,10 +2631,18 @@
       <c r="L27" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+      <c r="M27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q27" s="38"/>
       <c r="R27" s="38"/>
       <c r="S27" s="38"/>
@@ -2771,7 +2815,7 @@
       </c>
       <c r="E31" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="36">
         <f t="shared" si="1"/>
@@ -2784,9 +2828,13 @@
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
+      <c r="N31" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
+      <c r="P31" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q31" s="38"/>
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
@@ -2859,7 +2907,7 @@
       </c>
       <c r="E33" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="1"/>
@@ -2874,7 +2922,9 @@
         <v>20</v>
       </c>
       <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
+      <c r="N33" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O33" s="38"/>
       <c r="P33" s="38"/>
       <c r="Q33" s="38"/>
@@ -2905,7 +2955,7 @@
       </c>
       <c r="E34" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="36">
         <f t="shared" si="1"/>
@@ -2922,7 +2972,9 @@
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
       <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
+      <c r="P34" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
@@ -2951,7 +3003,7 @@
       </c>
       <c r="E35" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="1"/>
@@ -2963,9 +3015,13 @@
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
+      <c r="M35" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
+      <c r="O35" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
       <c r="R35" s="38"/>
@@ -2995,7 +3051,7 @@
       </c>
       <c r="E36" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="36">
         <f t="shared" si="1"/>
@@ -3009,7 +3065,9 @@
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
+      <c r="M36" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N36" s="38"/>
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
@@ -3089,7 +3147,7 @@
       </c>
       <c r="E38" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="1"/>
@@ -3102,7 +3160,9 @@
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
+      <c r="N38" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O38" s="38"/>
       <c r="P38" s="38"/>
       <c r="Q38" s="38"/>
@@ -3225,7 +3285,7 @@
       </c>
       <c r="E41" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="36">
         <f t="shared" si="1"/>
@@ -3242,7 +3302,9 @@
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
       <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
+      <c r="P41" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q41" s="38"/>
       <c r="R41" s="38"/>
       <c r="S41" s="38"/>
@@ -3319,7 +3381,7 @@
       </c>
       <c r="E43" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="36">
         <f t="shared" si="1"/>
@@ -3334,7 +3396,9 @@
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
+      <c r="N43" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O43" s="38"/>
       <c r="P43" s="38"/>
       <c r="Q43" s="38"/>
@@ -3365,7 +3429,7 @@
       </c>
       <c r="E44" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="36">
         <f t="shared" si="1"/>
@@ -3382,7 +3446,9 @@
       <c r="M44" s="38"/>
       <c r="N44" s="38"/>
       <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
+      <c r="P44" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q44" s="38"/>
       <c r="R44" s="38"/>
       <c r="S44" s="38"/>
@@ -3411,7 +3477,7 @@
       </c>
       <c r="E45" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="36">
         <f t="shared" si="1"/>
@@ -3428,7 +3494,9 @@
       <c r="M45" s="38"/>
       <c r="N45" s="38"/>
       <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
+      <c r="P45" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q45" s="38"/>
       <c r="R45" s="38"/>
       <c r="S45" s="38"/>
@@ -3505,7 +3573,7 @@
       </c>
       <c r="E47" s="35">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="1"/>
@@ -3524,7 +3592,9 @@
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
       <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
+      <c r="P47" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q47" s="38"/>
       <c r="R47" s="38"/>
       <c r="S47" s="38"/>
@@ -3553,7 +3623,7 @@
       </c>
       <c r="E48" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="1"/>
@@ -3570,7 +3640,9 @@
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
       <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
+      <c r="P48" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q48" s="38"/>
       <c r="R48" s="38"/>
       <c r="S48" s="38"/>
@@ -3599,7 +3671,7 @@
       </c>
       <c r="E49" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="36">
         <f t="shared" si="1"/>
@@ -3614,7 +3686,9 @@
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
+      <c r="N49" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O49" s="38"/>
       <c r="P49" s="38"/>
       <c r="Q49" s="38"/>
@@ -3737,7 +3811,7 @@
       </c>
       <c r="E52" s="35">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="36">
         <f t="shared" si="1"/>
@@ -3756,7 +3830,9 @@
       <c r="M52" s="38"/>
       <c r="N52" s="38"/>
       <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
+      <c r="P52" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q52" s="38"/>
       <c r="R52" s="38"/>
       <c r="S52" s="38"/>
@@ -3804,7 +3880,7 @@
       <c r="M53" s="38"/>
       <c r="N53" s="38"/>
       <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
+      <c r="P53" s="39"/>
       <c r="Q53" s="38"/>
       <c r="R53" s="38"/>
       <c r="S53" s="38"/>
@@ -3833,7 +3909,7 @@
       </c>
       <c r="E54" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="1"/>
@@ -3850,7 +3926,9 @@
       <c r="M54" s="38"/>
       <c r="N54" s="38"/>
       <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
+      <c r="P54" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q54" s="38"/>
       <c r="R54" s="38"/>
       <c r="S54" s="38"/>
@@ -3927,7 +4005,7 @@
       </c>
       <c r="E56" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" s="36">
         <f t="shared" si="1"/>
@@ -3942,9 +4020,13 @@
       <c r="K56" s="38"/>
       <c r="L56" s="38"/>
       <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
+      <c r="N56" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
+      <c r="P56" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q56" s="38"/>
       <c r="R56" s="38"/>
       <c r="S56" s="38"/>
@@ -3973,7 +4055,7 @@
       </c>
       <c r="E57" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="36">
         <f t="shared" si="1"/>
@@ -3988,7 +4070,9 @@
       </c>
       <c r="L57" s="38"/>
       <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
+      <c r="N57" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O57" s="38"/>
       <c r="P57" s="38"/>
       <c r="Q57" s="38"/>
@@ -4019,7 +4103,7 @@
       </c>
       <c r="E58" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="1"/>
@@ -4034,7 +4118,9 @@
       <c r="K58" s="38"/>
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
+      <c r="N58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O58" s="38"/>
       <c r="P58" s="38"/>
       <c r="Q58" s="38"/>
@@ -4065,7 +4151,7 @@
       </c>
       <c r="E59" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="36">
         <f t="shared" si="1"/>
@@ -4077,8 +4163,12 @@
       <c r="J59" s="38"/>
       <c r="K59" s="38"/>
       <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
+      <c r="M59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O59" s="38"/>
       <c r="P59" s="38"/>
       <c r="Q59" s="38"/>
@@ -4109,7 +4199,7 @@
       </c>
       <c r="E60" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="36">
         <f t="shared" si="1"/>
@@ -4124,7 +4214,9 @@
       <c r="M60" s="38"/>
       <c r="N60" s="38"/>
       <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
+      <c r="P60" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q60" s="38"/>
       <c r="R60" s="38"/>
       <c r="S60" s="38"/>
@@ -4153,7 +4245,7 @@
       </c>
       <c r="E61" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="36">
         <f t="shared" si="1"/>
@@ -4167,7 +4259,9 @@
       <c r="J61" s="38"/>
       <c r="K61" s="38"/>
       <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
+      <c r="M61" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N61" s="38"/>
       <c r="O61" s="38"/>
       <c r="P61" s="38"/>
@@ -4199,7 +4293,7 @@
       </c>
       <c r="E62" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="36">
         <f t="shared" si="1"/>
@@ -4212,9 +4306,11 @@
       <c r="K62" s="38"/>
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
+      <c r="N62" s="39"/>
       <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
+      <c r="P62" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q62" s="38"/>
       <c r="R62" s="38"/>
       <c r="S62" s="38"/>
@@ -4243,7 +4339,7 @@
       </c>
       <c r="E63" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="36">
         <f t="shared" si="1"/>
@@ -4258,7 +4354,9 @@
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
+      <c r="N63" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O63" s="38"/>
       <c r="P63" s="38"/>
       <c r="Q63" s="38"/>
@@ -4289,7 +4387,7 @@
       </c>
       <c r="E64" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="36">
         <f t="shared" si="1"/>
@@ -4306,7 +4404,9 @@
       <c r="M64" s="38"/>
       <c r="N64" s="38"/>
       <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
+      <c r="P64" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q64" s="38"/>
       <c r="R64" s="38"/>
       <c r="S64" s="38"/>
@@ -4335,7 +4435,7 @@
       </c>
       <c r="E65" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="36">
         <f t="shared" si="1"/>
@@ -4350,7 +4450,9 @@
       <c r="K65" s="38"/>
       <c r="L65" s="38"/>
       <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
+      <c r="N65" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O65" s="38"/>
       <c r="P65" s="38"/>
       <c r="Q65" s="38"/>
@@ -4381,7 +4483,7 @@
       </c>
       <c r="E66" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="36">
         <f t="shared" si="1"/>
@@ -4395,7 +4497,9 @@
       <c r="J66" s="38"/>
       <c r="K66" s="38"/>
       <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
+      <c r="M66" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N66" s="38"/>
       <c r="O66" s="38"/>
       <c r="P66" s="38"/>
@@ -4521,7 +4625,7 @@
       </c>
       <c r="E69" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="36">
         <f t="shared" si="1"/>
@@ -4535,7 +4639,9 @@
       <c r="J69" s="38"/>
       <c r="K69" s="38"/>
       <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
+      <c r="M69" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N69" s="38"/>
       <c r="O69" s="38"/>
       <c r="P69" s="38"/>
@@ -4567,7 +4673,7 @@
       </c>
       <c r="E70" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" s="36">
         <f t="shared" si="1"/>
@@ -4583,8 +4689,12 @@
       <c r="L70" s="38"/>
       <c r="M70" s="38"/>
       <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
+      <c r="O70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q70" s="38"/>
       <c r="R70" s="38"/>
       <c r="S70" s="38"/>
@@ -4661,7 +4771,7 @@
       </c>
       <c r="E72" s="35">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" s="36">
         <f t="shared" si="1"/>
@@ -4677,10 +4787,14 @@
       <c r="L72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M72" s="38"/>
+      <c r="M72" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N72" s="38"/>
       <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
+      <c r="P72" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q72" s="38"/>
       <c r="R72" s="38"/>
       <c r="S72" s="38"/>
@@ -4709,7 +4823,7 @@
       </c>
       <c r="E73" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" s="36">
         <f t="shared" si="1"/>
@@ -4723,8 +4837,12 @@
       <c r="L73" s="38"/>
       <c r="M73" s="38"/>
       <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
+      <c r="O73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q73" s="38"/>
       <c r="R73" s="38"/>
       <c r="S73" s="38"/>
@@ -4753,7 +4871,7 @@
       </c>
       <c r="E74" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="36">
         <f t="shared" si="1"/>
@@ -4768,7 +4886,9 @@
       <c r="M74" s="38"/>
       <c r="N74" s="38"/>
       <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
+      <c r="P74" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q74" s="38"/>
       <c r="R74" s="38"/>
       <c r="S74" s="38"/>
@@ -4845,7 +4965,7 @@
       </c>
       <c r="E76" s="35">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76" s="36">
         <f t="shared" si="1"/>
@@ -4866,7 +4986,9 @@
       <c r="M76" s="38"/>
       <c r="N76" s="38"/>
       <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
+      <c r="P76" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q76" s="38"/>
       <c r="R76" s="38"/>
       <c r="S76" s="38"/>
@@ -4895,7 +5017,7 @@
       </c>
       <c r="E77" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="36">
         <f t="shared" si="1"/>
@@ -4912,7 +5034,9 @@
       <c r="M77" s="38"/>
       <c r="N77" s="38"/>
       <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
+      <c r="P77" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q77" s="38"/>
       <c r="R77" s="38"/>
       <c r="S77" s="38"/>
@@ -4941,7 +5065,7 @@
       </c>
       <c r="E78" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="36">
         <f t="shared" si="1"/>
@@ -4958,7 +5082,9 @@
       <c r="M78" s="38"/>
       <c r="N78" s="38"/>
       <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
+      <c r="P78" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="Q78" s="38"/>
       <c r="R78" s="38"/>
       <c r="S78" s="38"/>
@@ -4987,7 +5113,7 @@
       </c>
       <c r="E79" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="36">
         <f t="shared" si="1"/>
@@ -5001,7 +5127,9 @@
       <c r="J79" s="38"/>
       <c r="K79" s="38"/>
       <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
+      <c r="M79" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N79" s="38"/>
       <c r="O79" s="38"/>
       <c r="P79" s="38"/>
@@ -5079,7 +5207,7 @@
       </c>
       <c r="E81" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="36">
         <f t="shared" si="1"/>
@@ -5094,7 +5222,9 @@
       <c r="K81" s="38"/>
       <c r="L81" s="38"/>
       <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
+      <c r="N81" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O81" s="38"/>
       <c r="P81" s="38"/>
       <c r="Q81" s="38"/>
@@ -5162,7 +5292,7 @@
       </c>
       <c r="E83" s="35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" s="36">
         <f t="shared" si="1"/>
@@ -5177,8 +5307,12 @@
       </c>
       <c r="L83" s="38"/>
       <c r="M83" s="38"/>
-      <c r="N83" s="38"/>
-      <c r="O83" s="38"/>
+      <c r="N83" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O83" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="P83" s="38"/>
       <c r="Q83" s="38"/>
       <c r="R83" s="38"/>
@@ -5208,7 +5342,7 @@
       </c>
       <c r="E84" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="36">
         <f t="shared" si="1"/>
@@ -5221,8 +5355,10 @@
       <c r="K84" s="38"/>
       <c r="L84" s="38"/>
       <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="38"/>
+      <c r="N84" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O84" s="39"/>
       <c r="P84" s="38"/>
       <c r="Q84" s="38"/>
       <c r="R84" s="38"/>
